--- a/documents/DB定義書_チーム名.xlsx
+++ b/documents/DB定義書_チーム名.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8554F6-4212-42C5-BAC6-0433E1D725F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC597541-131B-482B-951C-665EF4FA4215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-480" yWindow="420" windowWidth="11145" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30570" yWindow="450" windowWidth="26220" windowHeight="14490" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -90,26 +89,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>論理名</t>
-    <rPh sb="0" eb="2">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理名</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイプ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -146,26 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル論理名</t>
-    <rPh sb="4" eb="6">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル物理名</t>
-    <rPh sb="4" eb="6">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイズ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -348,6 +307,96 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名(エンティティ)</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名（テーブル名）</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字の可能可否を書く</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクモジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低限の長さ、規則などを書く</t>
+    <rPh sb="0" eb="3">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キソク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別途コンピュータID入れてください</t>
+    <rPh sb="0" eb="2">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -355,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +424,22 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -437,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -463,6 +528,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,13 +902,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -869,16 +940,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -886,13 +957,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -901,13 +972,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -916,13 +987,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -931,13 +1002,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1196,7 +1267,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1214,7 +1285,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1222,13 +1293,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1249,10 +1320,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1263,10 +1334,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1280,31 +1351,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -1316,26 +1387,28 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id varchar (40),</v>
@@ -1346,13 +1419,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1361,7 +1434,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>password varchar (20),</v>
@@ -1372,13 +1447,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1396,13 +1471,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
         <v>40</v>
@@ -1707,7 +1782,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1796,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1739,7 +1814,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1747,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1774,10 +1849,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1788,10 +1863,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1805,31 +1880,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -1841,19 +1916,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1869,13 +1944,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2214,7 +2289,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2303,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2246,7 +2321,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2254,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2281,10 +2356,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2295,10 +2370,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2312,31 +2387,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -2348,16 +2423,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2366,7 +2441,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>reservation varchar (250),</v>
+        <v>reservation varchar (255),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2374,13 +2449,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2398,13 +2473,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2422,19 +2497,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
         <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2735,7 +2810,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2748,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2767,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2775,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2802,10 +2877,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2816,10 +2891,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2833,31 +2908,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -2869,24 +2944,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id varchar (40),</v>
@@ -2897,13 +2974,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2921,13 +2998,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3248,7 +3325,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/documents/DB定義書_チーム名.xlsx
+++ b/documents/DB定義書_チーム名.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC597541-131B-482B-951C-665EF4FA4215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF0C6DD-54CD-4853-A045-9C2A5CB50B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="450" windowWidth="26220" windowHeight="14490" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDPW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,45 +354,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力文字の可能可否を書く</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクモジ</t>
-    </rPh>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英数字</t>
+    <rPh sb="0" eb="3">
+      <t>エイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5文字以上、大文字・数字含む</t>
+    <rPh sb="1" eb="5">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント管理</t>
     <rPh sb="5" eb="7">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最低限の長さ、規則などを書く</t>
-    <rPh sb="0" eb="3">
-      <t>サイテイゲン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キソク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>別途コンピュータID入れてください</t>
-    <rPh sb="0" eb="2">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>イ</t>
-    </rPh>
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -404,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +440,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -502,7 +509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,6 +541,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,7 +890,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -902,13 +912,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -940,10 +950,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -957,13 +967,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -972,13 +982,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -987,13 +997,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1002,13 +1012,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1266,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1293,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1323,7 +1333,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1334,10 +1344,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1351,10 +1361,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1379,7 +1389,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table IDPW (</v>
+        <v>create table user_data (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1387,31 +1397,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3">
-        <v>40</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="J10" s="9"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id varchar (40),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1419,13 +1425,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1434,8 +1440,8 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="10" t="s">
-        <v>56</v>
+      <c r="J11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1447,13 +1453,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1471,13 +1477,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3">
         <v>40</v>
@@ -1489,25 +1495,35 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>name varchar (40)</v>
+        <v>name varchar (40),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>40</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>mail varchar (40)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1788,6 +1804,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1796,7 +1813,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1822,13 +1839,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1852,7 +1869,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1863,10 +1880,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1880,10 +1897,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1916,27 +1933,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3">
-        <v>40</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id varchar (40),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1944,13 +1961,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1960,25 +1977,35 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">reaction int </v>
+        <v>reaction int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>40</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>mail varchar (40)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2302,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DE91AE-FF00-4E04-8431-557789B06C88}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2329,13 +2356,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2359,7 +2386,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2370,10 +2397,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2387,10 +2414,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2423,13 +2450,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3">
         <v>255</v>
@@ -2449,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2473,13 +2500,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2497,45 +2524,55 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>40</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>id varchar (40)</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>40</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>mail varchar (40)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2823,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2850,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2880,7 +2917,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2891,10 +2928,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2908,10 +2945,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2944,29 +2981,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3">
-        <v>40</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="J10" s="10"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id varchar (40),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2974,13 +3009,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2998,13 +3033,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3014,25 +3049,35 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">reply_status int </v>
+        <v>reply_status int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>40</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>email varchar (40)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">

--- a/documents/DB定義書_チーム名.xlsx
+++ b/documents/DB定義書_チーム名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF0C6DD-54CD-4853-A045-9C2A5CB50B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D26F9B-E0A4-4F28-B616-4B8892231314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
@@ -2860,7 +2860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
